--- a/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,69 +470,69 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -608,407 +544,407 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,95</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>62,76%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>53,86%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>48,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>34,58%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>16.16682380428781</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>27.75750102591734</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>13.07518192722726</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>8.258829787982828</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.634621581519902</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.5386336014040775</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.5584228219345803</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.3372072575235097</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>9,15; 22,04</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>15,71; 40,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 17,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 13,25</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>31,81; 105,46</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>25,98; 99,72</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>21,27; 79,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,21; 65,45</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>8.97834489568171</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>15.70900870293852</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.148204862685588</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.56363379258917</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.3038384562658225</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.2597529183104854</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.2682107509872969</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.08958437515655975</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>23.16175484082933</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>40.44193746885796</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.84296931100107</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.53185368907472</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.133869480908521</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.9971769508377588</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.9275551928059044</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.6480651095463292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>61,44%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 4,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>14,98; 24,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 4,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 4,81</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 44,11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>43,05; 82,81</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 45,5</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 30,75</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.574629869419518</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>19.79703139119488</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.077308941336907</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.702475062401188</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2392156672558638</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.6144113815364618</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1764486838852083</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1509857775045373</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-0.04694890344781139</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>14.98247547400384</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-0.5230233927365278</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.3349493284623218</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.00385738534042879</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.4305125029720726</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.04495391431613888</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.02041794745353853</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>5.03765518612788</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>24.70647092661103</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>4.679103579623028</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>5.039029151679471</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5304605176689321</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8281068107938978</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.439312841882269</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3002515693127189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>45,07%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>41,43%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 7,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 17,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 4,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 3,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 103,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>19,37; 68,13</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 86,67</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-13,49; 42,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>4.050794338898761</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>11.75013378961057</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.941974395110049</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.9242232773481157</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4163750887798719</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.4142695137586349</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3177773255063677</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.08181003773046797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.07607324239417182</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>5.922322845130569</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-0.9577885620525731</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>-2.32811581442536</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.003061998101819987</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.1937274969096163</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1355414098091146</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.181020028752558</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>7.833332045085026</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>17.07304677767284</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>5.183819379934523</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>3.669721320617018</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.9531767195678358</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.6812553044345102</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.045197230247712</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3705388681789988</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>18,16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>52,64%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>53,82%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>34,13%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 8,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>13,96; 21,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 5,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>33,11; 74,9</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>38,59; 69,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>17,57; 50,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 31,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>6.653948537477921</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>18.16062553157187</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>4.200817946689941</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>3.006242754745539</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5476314870655702</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.5381735636619711</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3530401444563653</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1766350140198228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>4.41415389573272</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>13.96098098307684</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.180009426250024</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1.121901554510573</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3304714370547837</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.3858666706535382</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1694326040271613</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.06248496147685687</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>8.819505937036464</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>21.87397081574375</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>6.187681903773516</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>4.733126928057395</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8072189398505637</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.6954942619787474</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5649884472755974</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2945833117437253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1016,13 +952,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
